--- a/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
+++ b/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>medatata_name</t>
   </si>
@@ -166,6 +166,15 @@
   <si>
     <t>end_candidate_period</t>
   </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>the first record of each person is the maximum between cohort_entry_date and date_MS, and, if the date date_MS falls between the DU_pregnancy_study_entry_date and DU_pregnancy_study_exit_date, DU_pregnancy_study_exit_date +1. If the person then has at least a pregnancy, a record is created for each pregnancy. The start_candidate_period of the next record is DU_pregnancy_study_exit_date[previous record] +1</t>
+  </si>
+  <si>
+    <t>The end of the each record is the minimum between cohort_exit_date and DU_pregnancy_study_entry - 1 of the next pregnancy of the person.</t>
+  </si>
 </sst>
 </file>
 
@@ -174,11 +183,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,98 +447,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -740,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -767,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2" ht="28.8">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3812,11 +3829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3883,7 +3900,9 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="G2" s="26"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:26" ht="43.2">
@@ -3897,7 +3916,9 @@
       <c r="E3" s="19"/>
       <c r="F3" s="30"/>
       <c r="G3" s="32"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="I3" s="21"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -3930,7 +3951,9 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="G4" s="32"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
@@ -3942,7 +3965,9 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="39" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="36" t="s">
@@ -3955,7 +3980,9 @@
         <v>26</v>
       </c>
       <c r="G6" s="32"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
@@ -3969,23 +3996,37 @@
         <v>26</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="28"/>
+      <c r="H7" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="138.6">
       <c r="A8" s="38" t="s">
         <v>44</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="42">
       <c r="A9" s="38" t="s">
         <v>45</v>
       </c>
+      <c r="B9" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="36" t="s">
         <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1"/>

--- a/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
+++ b/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C7E4F6-A6CA-42B9-BF1F-E86939BF69AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -146,9 +147,6 @@
     <t>D4_candidate_matches_MS_non_pregnant</t>
   </si>
   <si>
-    <t>This applies some of the steps in the appendix: selects all the periods when women with MS are outside of the pregnancy cohort</t>
-  </si>
-  <si>
     <t>a person who is with MS</t>
   </si>
   <si>
@@ -175,11 +173,14 @@
   <si>
     <t>The end of the each record is the minimum between cohort_exit_date and DU_pregnancy_study_entry - 1 of the next pregnancy of the person.</t>
   </si>
+  <si>
+    <t xml:space="preserve">This applies some of the steps in the appendix: selects all the periods when women with MS are outside of the DU pregnant persontime </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -542,7 +543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,21 +755,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="91.44140625" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="91.42578125" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -784,23 +785,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.8">
+    <row r="5" spans="1:2" ht="47.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -808,23 +809,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
+    <row r="6" spans="1:2" ht="31.5">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -832,51 +833,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="14.4">
+    <row r="11" spans="1:2">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="14.4">
+    <row r="12" spans="1:2">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" ht="14.4">
+    <row r="13" spans="1:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" ht="14.4">
+    <row r="14" spans="1:2">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="14.4">
+    <row r="15" spans="1:2">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="14.4">
+    <row r="16" spans="1:2">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" ht="14.4">
+    <row r="17" spans="2:2">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" ht="14.4">
+    <row r="18" spans="2:2">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" ht="14.4">
+    <row r="19" spans="2:2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" ht="14.4">
+    <row r="20" spans="2:2">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" ht="14.4">
+    <row r="21" spans="2:2">
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="2:2" ht="15.75" customHeight="1">
@@ -3826,33 +3827,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="64.6640625" customWidth="1"/>
-    <col min="12" max="26" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="64.7109375" customWidth="1"/>
+    <col min="12" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.6">
+    <row r="1" spans="1:26" ht="15.75">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -3901,11 +3902,11 @@
       <c r="E2" s="14"/>
       <c r="G2" s="26"/>
       <c r="H2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="32" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +3918,7 @@
       <c r="F3" s="30"/>
       <c r="G3" s="32"/>
       <c r="H3" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="20"/>
@@ -3952,7 +3953,7 @@
       <c r="E4" s="17"/>
       <c r="G4" s="32"/>
       <c r="H4" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="28"/>
     </row>
@@ -3966,7 +3967,7 @@
       <c r="E5" s="16"/>
       <c r="G5" s="32"/>
       <c r="H5" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
@@ -3981,7 +3982,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="28"/>
     </row>
@@ -3997,36 +3998,36 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="138.6">
+    <row r="8" spans="1:26" ht="143.25">
       <c r="A8" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="42">
-      <c r="A9" s="38" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="9" spans="1:26" ht="43.5">
+      <c r="A9" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="B9" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1"/>
@@ -5000,22 +5001,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -5026,47 +5027,47 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="25"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="14.4">
+    <row r="3" spans="1:3">
       <c r="A3" s="25"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:3" ht="14.4">
+    <row r="4" spans="1:3">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4">
+    <row r="5" spans="1:3">
       <c r="A5" s="25"/>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:3" ht="14.4">
+    <row r="6" spans="1:3">
       <c r="A6" s="25"/>
       <c r="B6" s="15"/>
     </row>
-    <row r="7" spans="1:3" ht="14.4">
+    <row r="7" spans="1:3">
       <c r="A7" s="25"/>
       <c r="B7" s="15"/>
     </row>
-    <row r="8" spans="1:3" ht="14.4">
+    <row r="8" spans="1:3">
       <c r="A8" s="25"/>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:3" ht="14.4">
+    <row r="9" spans="1:3">
       <c r="A9" s="25"/>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:3" ht="14.4">
+    <row r="10" spans="1:3">
       <c r="A10" s="25"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:3" ht="14.4">
+    <row r="11" spans="1:3">
       <c r="A11" s="25"/>
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="1:3" ht="14.4">
+    <row r="12" spans="1:3">
       <c r="A12" s="25"/>
       <c r="B12" s="15"/>
     </row>
@@ -6057,46 +6058,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:F988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="4" width="44.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="25" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.4">
+    <row r="1" spans="2:6">
       <c r="B1" s="27"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="2:6" ht="14.4">
+    <row r="2" spans="2:6">
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="2:6" ht="14.4">
+    <row r="3" spans="2:6">
       <c r="B3" s="27"/>
     </row>
-    <row r="4" spans="2:6" ht="14.4">
+    <row r="4" spans="2:6">
       <c r="B4" s="27"/>
     </row>
-    <row r="5" spans="2:6" ht="14.4">
+    <row r="5" spans="2:6">
       <c r="B5" s="27"/>
     </row>
-    <row r="6" spans="2:6" ht="14.4">
+    <row r="6" spans="2:6">
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="2:6" ht="14.4">
+    <row r="7" spans="2:6">
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="2:6" ht="14.4">
+    <row r="8" spans="2:6">
       <c r="B8" s="27"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1">

--- a/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
+++ b/i_codebooks/D4_candidate_matches_MS_non_pregnant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\DP3-MS-SLE - Copy\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C7E4F6-A6CA-42B9-BF1F-E86939BF69AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF72FD6-AB72-4A4A-A47E-216D478D89C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -168,13 +168,13 @@
     <t>yes</t>
   </si>
   <si>
-    <t>the first record of each person is the maximum between cohort_entry_date and date_MS, and, if the date date_MS falls between the DU_pregnancy_study_entry_date and DU_pregnancy_study_exit_date, DU_pregnancy_study_exit_date +1. If the person then has at least a pregnancy, a record is created for each pregnancy. The start_candidate_period of the next record is DU_pregnancy_study_exit_date[previous record] +1</t>
-  </si>
-  <si>
     <t>The end of the each record is the minimum between cohort_exit_date and DU_pregnancy_study_entry - 1 of the next pregnancy of the person.</t>
   </si>
   <si>
     <t xml:space="preserve">This applies some of the steps in the appendix: selects all the periods when women with MS are outside of the DU pregnant persontime </t>
+  </si>
+  <si>
+    <t>the first record of each person is the maximum between cohort_entry_date and date_MS, and, if the date date_MS falls between the DU_pregnancy_study_entry_date and DU_pregnancy_study_exit_date, DU_pregnancy_study_exit_date +1. If the person then has at least a pregnancy, a record is created for each pregnancy after joining consecutive pregnancies. The start_candidate_period of the next record is DU_pregnancy_study_exit_date[previous record] +1</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -790,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
@@ -3830,11 +3830,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z973"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4007,7 +4007,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>26</v>
@@ -4021,7 +4021,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>26</v>
